--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ED16397-0C30-41FA-B390-A36A4205A4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995CAE0D-71D6-43EC-AAFA-E0DCA24CF881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -1336,13 +1336,7 @@
 4. テスト後にカートが空になり、「シンプルデスクオーガナイザー」の在庫が2、「アロマディフューザー（ウッド）」の在庫が1減っていること。</t>
   </si>
   <si>
-    <t>ST-SC-002</t>
-  </si>
-  <si>
     <t>カート操作シナリオ</t>
-  </si>
-  <si>
-    <t>カート内で数量変更や商品削除を行った後、注文が正常に行えるか</t>
   </si>
   <si>
     <t>1. products.html を表示。
@@ -2080,6 +2074,14 @@
   <si>
     <t>「コットンブランケット」の
 descriptionとimageUrlがnull</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-SC-002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カート内で数量変更や商品削除を行った後、注文が正常に行えるか</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2403,10 +2405,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2726,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2774,7 +2772,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2789,17 +2787,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2860,7 +2858,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2926,10 +2924,10 @@
         <v>35</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2949,10 +2947,10 @@
         <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -2992,7 +2990,7 @@
         <v>44</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>45</v>
@@ -3089,7 +3087,7 @@
         <v>58</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>59</v>
@@ -3112,7 +3110,7 @@
         <v>62</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>63</v>
@@ -3135,10 +3133,10 @@
         <v>66</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>67</v>
@@ -3158,7 +3156,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>70</v>
@@ -3181,13 +3179,13 @@
         <v>74</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3204,13 +3202,13 @@
         <v>77</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3250,13 +3248,13 @@
         <v>85</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -3273,13 +3271,13 @@
         <v>87</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3296,10 +3294,10 @@
         <v>89</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>90</v>
@@ -3319,10 +3317,10 @@
         <v>92</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>93</v>
@@ -3342,13 +3340,13 @@
         <v>96</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3365,13 +3363,13 @@
         <v>98</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>379</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3388,7 +3386,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>101</v>
@@ -3411,7 +3409,7 @@
         <v>104</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>105</v>
@@ -3434,7 +3432,7 @@
         <v>110</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>111</v>
@@ -3646,13 +3644,13 @@
         <v>148</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>149</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="144" x14ac:dyDescent="0.55000000000000004">
@@ -3669,7 +3667,7 @@
         <v>151</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>152</v>
@@ -3695,7 +3693,7 @@
         <v>156</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>157</v>
@@ -3818,7 +3816,7 @@
         <v>175</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -3884,10 +3882,10 @@
         <v>35</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
@@ -3907,10 +3905,10 @@
         <v>35</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4114,10 +4112,10 @@
         <v>213</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4160,10 +4158,10 @@
         <v>213</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -4248,145 +4246,145 @@
     </row>
     <row r="88" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>233</v>
+        <v>388</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>228</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D90" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="G90" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D91" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="G92" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="248.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4414,145 +4412,145 @@
     </row>
     <row r="97" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D100" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="G100" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D101" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="G101" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D102" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4580,209 +4578,209 @@
     </row>
     <row r="106" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D110" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F110" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="G110" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>109</v>
       </c>
       <c r="D111" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="G111" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="F112" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">

--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995CAE0D-71D6-43EC-AAFA-E0DCA24CF881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E85AED-31F7-4DB8-BB67-2BAEE55683F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="395">
   <si>
     <t>Raffine Home 総合テスト仕様書</t>
   </si>
@@ -178,9 +178,6 @@
     <t>期待結果</t>
   </si>
   <si>
-    <t>ST-P-001</t>
-  </si>
-  <si>
     <t>商品一覧画面</t>
   </si>
   <si>
@@ -1478,16 +1475,6 @@
   </si>
   <si>
     <t>管理者が商品を登録し、ユーザーがその商品をカートに入れ、注文を完了するまでの一連の流れが正常に行えるか</t>
-  </si>
-  <si>
-    <t>1. 「2. AdminProductList.html」を表示。
-2. 新規追加から、商品（商品A、説明A、価格：1,000、在庫数：5）を登録する。
-3. 「products.html」 を表示。
-4. 「商品A」を数量1でカートに追加。
-5. カートモーダルを表示し、内容（「商品A」 x1, 合計1,000円）を確認。
-6. 「注文手続きへ」をクリック。
-7. 有効な顧客情報を入力。
-8. 「注文を確定する」をクリック。</t>
   </si>
   <si>
     <t>1. 商品が入力内容通りに正しく登録されること。
@@ -2082,6 +2069,77 @@
   </si>
   <si>
     <t>カート内で数量変更や商品削除を行った後、注文が正常に行えるか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「2. AdminProductList.html」を表示。
+2. 新規追加から、商品（商品A、説明A、価格：1,000、セール価格：900、在庫数：5）を登録する。
+3. 「products.html」 を表示。
+4. 「商品A」を数量1でカートに追加。
+5. カートモーダルを表示し、内容（「商品A」 x1, 合計1,000円）を確認。
+6. 「注文手続きへ」をクリック。
+7. 有効な顧客情報を入力。
+8. 「注文を確定する」をクリック。</t>
+    <rPh sb="67" eb="69">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2回目</t>
+    <rPh sb="1" eb="3">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> にアクセスする。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-P-001</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2279,7 +2337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2381,6 +2439,39 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2722,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2736,7 +2827,9 @@
     <col min="4" max="5" width="35.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="67.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="71.25" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.58203125" style="1"/>
+    <col min="8" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="10" width="8.58203125" style="34"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2772,7 +2865,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2787,17 +2880,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2810,12 +2903,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
@@ -2837,220 +2930,270 @@
       <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="G21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="D28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="I28" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -3072,381 +3215,457 @@
       <c r="G31" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="G32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J33" s="36"/>
+    </row>
+    <row r="34" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="G34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="8" t="s">
+      <c r="I37" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="C38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="G39" s="10" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="I39" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J41" s="36"/>
+    </row>
+    <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J42" s="36"/>
+    </row>
+    <row r="43" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="F43" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="8" t="s">
+      <c r="I43" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="G44" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="15" t="s">
+      <c r="B45" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="16" t="s">
+      <c r="E45" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F45" s="17" t="s">
+      <c r="G45" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="I45" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45" s="37"/>
+    </row>
+    <row r="46" spans="1:10" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="11" t="s">
+      <c r="B46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="I46" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E47" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="F47" s="14" t="s">
+      <c r="G47" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="I47" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="J47" s="39"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="6" t="s">
         <v>10</v>
       </c>
@@ -3468,312 +3687,376 @@
       <c r="G50" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="G51" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="I51" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J51" s="36"/>
+    </row>
+    <row r="52" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="F52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="I52" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J52" s="36"/>
+    </row>
+    <row r="53" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="143.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="8" t="s">
+      <c r="B53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="E53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="I53" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="8" t="s">
+      <c r="B54" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="9" t="s">
+      <c r="E54" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="I54" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J54" s="36"/>
+    </row>
+    <row r="55" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="E55" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="10" t="s">
+      <c r="G55" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="I55" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J55" s="40"/>
+    </row>
+    <row r="56" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="8" t="s">
+      <c r="B56" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="I56" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J56" s="36"/>
+    </row>
+    <row r="57" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="9" t="s">
+      <c r="E57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="I57" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J57" s="36"/>
+    </row>
+    <row r="58" spans="1:10" ht="162" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="E58" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="G58" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" s="36"/>
+    </row>
+    <row r="59" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F58" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="F59" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F59" s="10" t="s">
+      <c r="G59" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="I59" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J59" s="36"/>
+    </row>
+    <row r="60" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="8" t="s">
+      <c r="B60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="F60" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F60" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="I60" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" s="36"/>
+    </row>
+    <row r="61" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="11" t="s">
+      <c r="B61" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="I61" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J61" s="36"/>
+    </row>
+    <row r="62" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="8" t="s">
+      <c r="B62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="E62" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="I62" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J62" s="36"/>
+    </row>
+    <row r="63" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="G63" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="I63" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J63" s="36"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="24" t="s">
         <v>10</v>
       </c>
@@ -3795,410 +4078,490 @@
       <c r="G66" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J66" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="G67" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J67" s="41"/>
+    </row>
+    <row r="68" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J68" s="41"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="26" t="s">
+      <c r="D69" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="26" t="s">
+      <c r="F69" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="26" t="s">
+      <c r="D70" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J70" s="41"/>
+    </row>
+    <row r="71" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" customFormat="1" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" spans="1:10" customFormat="1" ht="101.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I77" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I78" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I79" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:10" customFormat="1" ht="162" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="I81" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="J81" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" customFormat="1" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" customFormat="1" ht="101.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F77" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" customFormat="1" ht="162" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="31" t="s">
+      <c r="D82" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E80" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F80" s="26" t="s">
+      <c r="F82" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="G82" s="31" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="26" t="s">
+      <c r="I82" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J82" s="42"/>
+    </row>
+    <row r="83" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="G82" s="31" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="26" t="s">
+      <c r="C83" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="F83" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F83" s="29" t="s">
-        <v>222</v>
-      </c>
       <c r="G83" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J83" s="41"/>
+    </row>
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>222</v>
+      </c>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="6" t="s">
         <v>10</v>
       </c>
@@ -4220,174 +4583,214 @@
       <c r="G86" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I86" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J86" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="F87" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="I87" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J87" s="36"/>
+    </row>
+    <row r="88" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B88" s="8" t="s">
+      <c r="C88" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="I88" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J88" s="36"/>
+    </row>
+    <row r="89" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="15" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="15" t="s">
+      <c r="B89" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="16" t="s">
+      <c r="E89" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F89" s="17" t="s">
+      <c r="G89" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="I89" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="J89" s="37"/>
+    </row>
+    <row r="90" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="E90" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="F90" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="I90" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J90" s="36"/>
+    </row>
+    <row r="91" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="E91" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="I91" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J91" s="36"/>
+    </row>
+    <row r="92" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="E92" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="F92" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="I92" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J92" s="36"/>
+    </row>
+    <row r="93" spans="1:10" ht="248.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="248.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="C93" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" s="16" t="s">
+      <c r="E93" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F93" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F93" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="I93" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J93" s="37"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I94" s="38"/>
+      <c r="J94" s="38"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I95" s="38"/>
+      <c r="J95" s="38"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="6" t="s">
         <v>10</v>
       </c>
@@ -4409,151 +4812,191 @@
       <c r="G96" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I96" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J96" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="C97" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D97" s="16" t="s">
+      <c r="E97" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="G97" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F97" s="17" t="s">
+      <c r="I97" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J97" s="37"/>
+    </row>
+    <row r="98" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="B98" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="15" t="s">
+      <c r="C98" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="E98" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D98" s="16" t="s">
+      <c r="G98" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F98" s="17" t="s">
+      <c r="I98" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J98" s="37"/>
+    </row>
+    <row r="99" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="B99" s="15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="15" t="s">
+      <c r="C99" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="E99" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D99" s="16" t="s">
+      <c r="G99" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F99" s="17" t="s">
+      <c r="I99" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J99" s="37"/>
+    </row>
+    <row r="100" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="B100" s="15" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="15" t="s">
+      <c r="C100" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="E100" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D100" s="16" t="s">
+      <c r="F100" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="G100" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="I100" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J100" s="37"/>
+    </row>
+    <row r="101" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="B101" s="15" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="15" t="s">
+      <c r="C101" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="E101" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D101" s="16" t="s">
+      <c r="F101" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="G101" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="J101" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="B102" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G101" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="15" t="s">
+      <c r="C102" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="E102" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" s="16" t="s">
+      <c r="G102" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F102" s="17" t="s">
+      <c r="I102" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="J102" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I103" s="38"/>
+      <c r="J103" s="38"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G102" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I104" s="38"/>
+      <c r="J104" s="38"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="6" t="s">
         <v>10</v>
       </c>
@@ -4575,215 +5018,257 @@
       <c r="G105" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="I105" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="J105" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="E106" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="G106" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F106" s="10" t="s">
+      <c r="I106" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J106" s="36"/>
+    </row>
+    <row r="107" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G106" s="10" t="s">
+      <c r="B107" s="22" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="8" t="s">
+      <c r="C107" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="G107" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I107" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="J107" s="44"/>
+    </row>
+    <row r="108" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C107" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="23" t="s">
+      <c r="B108" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="15" t="s">
+      <c r="C108" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="E108" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C108" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" s="16" t="s">
+      <c r="G108" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" s="17" t="s">
+      <c r="I108" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J108" s="37"/>
+    </row>
+    <row r="109" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G108" s="17" t="s">
+      <c r="B109" s="15" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="15" t="s">
+      <c r="C109" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="E109" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="16" t="s">
+      <c r="G109" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="19" t="s">
+      <c r="I109" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J109" s="37"/>
+    </row>
+    <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="B110" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="15" t="s">
+      <c r="C110" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="E110" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="16" t="s">
+      <c r="F110" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="G110" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="I110" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J110" s="37"/>
+    </row>
+    <row r="111" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="B111" s="19" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="15" t="s">
+      <c r="C111" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="E111" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C111" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D111" s="19" t="s">
+      <c r="F111" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="G111" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="I111" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="J111" s="37"/>
+    </row>
+    <row r="112" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="B112" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="8" t="s">
+      <c r="C112" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="F112" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="I112" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J112" s="36"/>
+    </row>
+    <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="B113" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="8" t="s">
+      <c r="C113" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="E113" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D113" s="9" t="s">
+      <c r="G113" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F113" s="9" t="s">
+      <c r="I113" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J113" s="36"/>
+    </row>
+    <row r="114" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="B114" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="E114" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="G114" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I114" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J114" s="36"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -4792,10 +5277,10 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117"/>
     </row>
   </sheetData>

--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E85AED-31F7-4DB8-BB67-2BAEE55683F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3BCCC-FD2F-4E82-9CEF-98900B3C5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="403">
   <si>
     <t>Raffine Home 総合テスト仕様書</t>
   </si>
@@ -190,8 +190,58 @@
     <t>アプリケーション起動直後</t>
   </si>
   <si>
-    <r>
-      <t>1. </t>
+    <t>ST-P-002</t>
+  </si>
+  <si>
+    <t>商品0件の場合の表示</t>
+  </si>
+  <si>
+    <t>DBに商品が0件</t>
+  </si>
+  <si>
+    <t>ST-P-003</t>
+  </si>
+  <si>
+    <t>ユーザビリティ</t>
+  </si>
+  <si>
+    <t>商品カードのデザインが見やすいか、情報が過不足ないか</t>
+  </si>
+  <si>
+    <t>1. 各商品カードのレイアウトが整っており、情報（画像、名前、価格）が認識しやすいこと。
+2. ボタンの文言が「詳細を見る」であり、意味が分かりやすいこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-P-004</t>
+  </si>
+  <si>
+    <t>商品詳細表示</t>
+  </si>
+  <si>
+    <t>「詳細を見る」ボタンから商品詳細がモーダル表示されるか</t>
+  </si>
+  <si>
+    <t>商品一覧が表示されている</t>
+  </si>
+  <si>
+    <t>ST-P-005</t>
+  </si>
+  <si>
+    <t>存在する別の商品の詳細が表示できるか</t>
+  </si>
+  <si>
+    <t>ST-P-006</t>
+  </si>
+  <si>
+    <t>存在しない商品IDでアクセスした場合 (APIレベル)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ブラウザ等で </t>
     </r>
     <r>
       <rPr>
@@ -202,7 +252,678 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>index.html</t>
+      <t>/api/products/99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (存在しないID) にGETリクエストを送る。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. HTTPステータスコード 404 (Not Found) が返ること。</t>
+  </si>
+  <si>
+    <t>ST-P-007</t>
+  </si>
+  <si>
+    <t>商品データの一部がnullの場合でもモーダルに表示ができるか</t>
+  </si>
+  <si>
+    <t>1. 商品詳細モーダルを目視で確認する。</t>
+  </si>
+  <si>
+    <t>1. 商品詳細モーダルが(productModal)が表示されること。
+2. 商品名、価格などは表示されること。
+3.説明欄は空白であること。</t>
+  </si>
+  <si>
+    <t>ST-P-008</t>
+  </si>
+  <si>
+    <t>論理削除された商品へのアクセスに正しく対応できるか</t>
+  </si>
+  <si>
+    <t>ステンレスタンブラーは論理削除されている</t>
+  </si>
+  <si>
+    <t>1.ブラウザ等で/api/products/{deleted_id}にGETリクエストを送る。</t>
+  </si>
+  <si>
+    <t>ST-P-009</t>
+  </si>
+  <si>
+    <t>商品詳細モーダルの情報が見やすく、操作しやすいか</t>
+  </si>
+  <si>
+    <t>1. 商品詳細モーダルを目視で確認する。
+2. 数量入力欄やボタンを操作してみる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品情報（画像、名前、価格、説明、在庫数）が分かりやすく配置されていること。
+2. 数量入力欄が操作可能で、初期値が1であること。
+3. 「カートに入れる」ボタンがクリック可能であること。</t>
+  </si>
+  <si>
+    <t>2. カート機能</t>
+  </si>
+  <si>
+    <t>ST-C-001</t>
+  </si>
+  <si>
+    <t>カート追加</t>
+  </si>
+  <si>
+    <t>商品詳細から商品をカートに追加できるか (1個)</t>
+  </si>
+  <si>
+    <t>1. 数量が「1」であることを確認する。
+2. 「カートに入れる」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「商品をカートに追加しました」アラートが表示されること。
+2. モーダルが閉じること。
+3. 画面右上のカートアイコンのバッジ (cart-count) の数字が「1」になること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-C-002</t>
+  </si>
+  <si>
+    <t>商品詳細から商品をカートに追加できるか (複数個)</t>
+  </si>
+  <si>
+    <t>1. 数量入力欄に「2」を入力する。
+2. 「カートに入れる」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. 「商品をカートに追加しました」アラートが表示されること。
+2. モーダルが閉じること。
+3. カートアイコンのバッジの数字が (前の状態 + 2) になること。</t>
+  </si>
+  <si>
+    <t>ST-C-003</t>
+  </si>
+  <si>
+    <t>同じ商品を複数回カートに追加した場合、数量が加算されるか</t>
+  </si>
+  <si>
+    <t>1. 「商品をカートに追加しました」アラートが表示されること。
+2. モーダルが閉じること。
+3. カートアイコンのバッジの数字が「3」 (1+2) になること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-C-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在庫数を超える数量をカートに追加しようとした場合 </t>
+  </si>
+  <si>
+    <t>1. 数量入力欄に「21」を入力しようとする。</t>
+  </si>
+  <si>
+    <t>1. 20以上の数字に変更できない。</t>
+  </si>
+  <si>
+    <t>ST-C-005</t>
+  </si>
+  <si>
+    <t>カート表示</t>
+  </si>
+  <si>
+    <t>カートアイコンクリックでカートモーダルが表示され、内容が正しいか (商品1種)</t>
+  </si>
+  <si>
+    <t>1. 画面右上のカートアイコンをクリックする。</t>
+  </si>
+  <si>
+    <t>ST-C-006</t>
+  </si>
+  <si>
+    <t>カートモーダルに複数種類の商品が正しく表示されるか（商品複数種）</t>
+  </si>
+  <si>
+    <t>1. カートアイコンをクリックする。</t>
+  </si>
+  <si>
+    <t>ST-C-007</t>
+  </si>
+  <si>
+    <t>カートが空の状態でカートモーダルを表示した場合</t>
+  </si>
+  <si>
+    <t>カートが空 (バッジ=0)</t>
+  </si>
+  <si>
+    <t>1. カートモーダルが表示されること。
+2. モーダル内に「カートは空です」というメッセージが表示されること。
+3. 合計金額が「0」または表示されないこと。
+4. 「注文手続きへ」ボタンが無効 (disabled) であること。</t>
+  </si>
+  <si>
+    <t>ST-C-008</t>
+  </si>
+  <si>
+    <t>カート数量変更</t>
+  </si>
+  <si>
+    <t>カートモーダルで商品の数量を変更できるか (増加)</t>
+  </si>
+  <si>
+    <t>ST-C-009</t>
+  </si>
+  <si>
+    <t>カートモーダルで商品の数量を変更できるか (減少)</t>
+  </si>
+  <si>
+    <t>ST-C-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カートモーダルで数量を在庫以上に変更しようとした場合 </t>
+  </si>
+  <si>
+    <t>1. 「注文を確定する」のボタンを押すと、「注文の確定に失敗しました」というエラーメッセージが表示される。</t>
+  </si>
+  <si>
+    <t>ST-C-011</t>
+  </si>
+  <si>
+    <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
+  </si>
+  <si>
+    <t>1. 「1」以下の数字に変更できない。</t>
+  </si>
+  <si>
+    <t>ST-C-012</t>
+  </si>
+  <si>
+    <t>カート商品削除</t>
+  </si>
+  <si>
+    <t>カートモーダルから商品を削除できるか</t>
+  </si>
+  <si>
+    <t>ST-C-013</t>
+  </si>
+  <si>
+    <t>カート内の最後の商品を削除した場合</t>
+  </si>
+  <si>
+    <t>ST-C-014</t>
+  </si>
+  <si>
+    <t>カート内の商品をクリアする</t>
+  </si>
+  <si>
+    <t>1. カートモーダルを表示する。
+2. 「カートをクリア」ボタンを押す。</t>
+  </si>
+  <si>
+    <t>1.「カートをすべて削除しますか？」と表示されること。
+2.上記に「ok」と押すと、「カートをクリアしました」というレスポンスが表示されること。
+3.上記に「ok」と押すと、「カートは空です」メッセージが表示されること。
+4.「注文手続きへ」ボタンが無効になること。</t>
+  </si>
+  <si>
+    <t>ST-C-015</t>
+  </si>
+  <si>
+    <t>カートモーダルの表示内容や操作性が分かりやすいか</t>
+  </si>
+  <si>
+    <t>1. カートモーダルを表示し、全体的なレイアウト、各項目の表示、ボタンの配置などを確認する。</t>
+  </si>
+  <si>
+    <t>ST-C-016</t>
+  </si>
+  <si>
+    <t>カート機能</t>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+  </si>
+  <si>
+    <t>数量変更APIに不正なproductIdを送信した場合 (APIレベル)</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ブラウザ開発者ツール等で、存在しないproduct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ("999") を指定して </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUT /api/cart/update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> APIを呼び出す。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. サーバー側で無視され、カートの内容に影響がないこと。</t>
+  </si>
+  <si>
+    <t>3. 注文機能</t>
+  </si>
+  <si>
+    <t>ST-O-001</t>
+  </si>
+  <si>
+    <t>注文手続き開始</t>
+  </si>
+  <si>
+    <t>カートモーダルから注文手続きへ進めるか</t>
+  </si>
+  <si>
+    <t>「シンプルデスクオーガナイザー」x1, 「アロマディフューザー（ウッド）」x1 がカートに入っている (バッジ=2)</t>
+  </si>
+  <si>
+    <t>1. カートモーダルを表示する。
+2. 「注文手続きへ」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. カートモーダルが閉じること。
+2. 顧客情報入力モーダル (checkoutModal) が表示されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-O-002</t>
+  </si>
+  <si>
+    <t>顧客情報入力</t>
+  </si>
+  <si>
+    <t>正常な顧客情報を入力できるか</t>
+  </si>
+  <si>
+    <t>顧客情報入力モーダルが表示されている</t>
+  </si>
+  <si>
+    <t>1. 以下の有効な情報を入力する。
+- 名前: 顧客 一郎
+- メール: ichiro@test.com
+- 住所: 東京都千代田区テスト1-1
+- 電話番号: 03-1234-5678
+2. (この時点では確定ボタンは押さない)</t>
+  </si>
+  <si>
+    <t>1. 各入力欄に情報が正しく入力されること。
+2. (バリデーションエラーが表示されていないこと)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-O-003</t>
+  </si>
+  <si>
+    <t>必須項目 (名前) 未入力で確定しようとした場合</t>
+  </si>
+  <si>
+    <t>1. 名前の入力欄を空にする。
+2. 他の項目は有効な値を入力する。
+3. 「注文を確定する」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1. 注文API (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>POST /api/orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>) が送信されない、または送信されてもサーバー側バリデーション (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>@NotBlank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>) により 400 Bad Request が返ること。
+2. 名前の入力欄の下に「お名前を入力してください」というエラーメッセージが表示されること (JSバリデーション or サーバーエラーの表示)。</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-O-004</t>
+  </si>
+  <si>
+    <t>必須項目 (メール) 未入力で確定しようとした場合</t>
+  </si>
+  <si>
+    <t>1. メールアドレスの入力欄を空にする。
+2. 他の項目は有効な値を入力する。
+3. 「注文を確定する」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
+2. メールアドレス入力欄の下に「有効なメールアドレスを入力してください」というエラーメッセージが表示されること。</t>
+  </si>
+  <si>
+    <t>ST-O-005</t>
+  </si>
+  <si>
+    <t>不正な形式のメールアドレスで確定しようとした場合</t>
+  </si>
+  <si>
+    <t>1. メールアドレス入力欄に「invalid-email」と入力する。
+2. 他の項目は有効な値を入力する。
+3. 「注文を確定する」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1. 注文APIが送信されない、または 400 Bad Request が返ること (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>@Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> バリデーション)。
+2. メールアドレス入力欄の下に「有効なメールアドレスを入力してください」というエラーメッセージが表示されること。</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-O-006</t>
+  </si>
+  <si>
+    <t>必須項目 (住所) 未入力で確定しようとした場合</t>
+  </si>
+  <si>
+    <t>1. 住所の入力欄を空にする。
+2. 他の項目は有効な値を入力する。
+3. 「注文を確定する」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
+2. 住所入力欄の下に「住所を入力してください」というエラーメッセージが表示されること。</t>
+  </si>
+  <si>
+    <t>ST-O-007</t>
+  </si>
+  <si>
+    <t>必須項目 (電話番号) 未入力で確定しようとした場合</t>
+  </si>
+  <si>
+    <t>1. 電話番号の入力欄を空にする。
+2. 他の項目は有効な値を入力する。
+3. 「注文を確定する」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
+2. 電話番号入力欄の下に「電話番号を入力してください」というエラーメッセージが表示されること。</t>
+  </si>
+  <si>
+    <t>ST-O-008</t>
+  </si>
+  <si>
+    <t>注文確定</t>
+  </si>
+  <si>
+    <t>有効な顧客情報で注文が正常に完了するか</t>
+  </si>
+  <si>
+    <t>1. 「注文を確定する」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>ST-O-009</t>
+  </si>
+  <si>
+    <t>在庫が不足している商品を注文しようとした場合</t>
+  </si>
+  <si>
+    <t>1. ST-O-001, ST-O-002 の手順を行う。
+2. 「注文を確定する」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 注文API (POST /api/orders) 呼び出しでサーバー側エラー (例: 500 Internal Server Error または適切なエラーコード) が発生すること (OrderService の在庫チェックによる例外)。
+2. 画面上にエラーメッセージが表示されること (現在のmain.jsでは汎用的なエラー表示)。
+3. DBのordersやproductsテーブルに変化がないこと (トランザクションがロールバックされる)。
+4. カートの中身やバッジは変化しないこと。</t>
+  </si>
+  <si>
+    <t>ST-O-010</t>
+  </si>
+  <si>
+    <t>注文処理中に予期せぬサーバーエラーが発生した場合 (擬似的に発生)</t>
+  </si>
+  <si>
+    <t>ST-O-001 の後、ST-O-002 の状態。</t>
+  </si>
+  <si>
+    <t>1. サーバーエラー (500 Internal Server Error) が返ること。
+2. 画面上にエラーメッセージが表示されること。
+3. DBのordersやproductsテーブルに変化がないこと (ロールバック)。
+4. カートの中身やバッジは変化しないこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-O-011</t>
+  </si>
+  <si>
+    <t>カートが空の状態で注文APIを直接呼び出した場合 (APIレベル)</t>
+  </si>
+  <si>
+    <t>カートが空</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ブラウザ開発ツール等で、カートが空の状態で </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POST /api/orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> に有効な顧客情報を含むリクエストを送信する。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. サーバー側 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderController</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) でカートが空であることが検知され、400 Bad Request が返ること。</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-O-012</t>
+  </si>
+  <si>
+    <t>顧客情報入力フォームの各項目が分かりやすいか</t>
+  </si>
+  <si>
+    <t>1. フォームのラベル、プレースホルダー、必須マーク等を目視で確認する。</t>
+  </si>
+  <si>
+    <t>1. 各入力欄のラベル（「お名前」「メールアドレス」等）が内容と一致していること。
+2. 必須項目が視覚的にわかるようになっていること（例: required属性）。
+3. バリデーションエラー時のメッセージが具体的で分かりやすいこと。</t>
+  </si>
+  <si>
+    <t>ST-O-013</t>
+  </si>
+  <si>
+    <t>注文完了</t>
+  </si>
+  <si>
+    <t>注文完了モーダルの表示内容が適切か</t>
+  </si>
+  <si>
+    <t>注文が正常に完了した後</t>
+  </si>
+  <si>
+    <t>1. 注文完了モーダルに表示されるメッセージ、注文番号等を確認する。</t>
+  </si>
+  <si>
+    <t>1. 注文が成功したことが明確に伝わるメッセージであること。
+2. 注文番号が確認できること。
+3.メールの送信が行われたことがわかること。
+4. 次のアクション（例: トップに戻る）を促すボタンが適切に配置されていること。</t>
+  </si>
+  <si>
+    <t>4. 管理者機能</t>
+  </si>
+  <si>
+    <t>ST-A-001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. 2. AdminProductList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.html</t>
     </r>
     <r>
       <rPr>
@@ -217,795 +938,7 @@
     </r>
   </si>
   <si>
-    <t>ST-P-002</t>
-  </si>
-  <si>
-    <t>商品0件の場合の表示</t>
-  </si>
-  <si>
-    <t>DBに商品が0件</t>
-  </si>
-  <si>
-    <t>1.商品一覧画面が空白のまま表示される。
-2.商品カードは表示されない。</t>
-  </si>
-  <si>
-    <t>ST-P-003</t>
-  </si>
-  <si>
-    <t>ユーザビリティ</t>
-  </si>
-  <si>
-    <t>商品カードのデザインが見やすいか、情報が過不足ないか</t>
-  </si>
-  <si>
-    <r>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> の商品一覧画面を目視で確認する。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. 各商品カードのレイアウトが整っており、情報（画像、名前、価格）が認識しやすいこと。
-2. ボタンの文言が「詳細を見る」であり、意味が分かりやすいこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-P-004</t>
-  </si>
-  <si>
-    <t>商品詳細表示</t>
-  </si>
-  <si>
-    <t>「詳細を見る」ボタンから商品詳細がモーダル表示されるか</t>
-  </si>
-  <si>
-    <t>商品一覧が表示されている</t>
-  </si>
-  <si>
-    <t>ST-P-005</t>
-  </si>
-  <si>
-    <t>存在する別の商品の詳細が表示できるか</t>
-  </si>
-  <si>
-    <t>ST-P-006</t>
-  </si>
-  <si>
-    <t>存在しない商品IDでアクセスした場合 (APIレベル)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>1. ブラウザ等で </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/api/products/99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (存在しないID) にGETリクエストを送る。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. HTTPステータスコード 404 (Not Found) が返ること。</t>
-  </si>
-  <si>
-    <t>ST-P-007</t>
-  </si>
-  <si>
-    <t>商品データの一部がnullの場合でもモーダルに表示ができるか</t>
-  </si>
-  <si>
-    <t>1. 商品詳細モーダルを目視で確認する。</t>
-  </si>
-  <si>
-    <t>1. 商品詳細モーダルが(productModal)が表示されること。
-2. 商品名、価格などは表示されること。
-3.説明欄は空白であること。</t>
-  </si>
-  <si>
-    <t>ST-P-008</t>
-  </si>
-  <si>
-    <t>論理削除された商品へのアクセスに正しく対応できるか</t>
-  </si>
-  <si>
-    <t>ステンレスタンブラーは論理削除されている</t>
-  </si>
-  <si>
-    <t>1.ブラウザ等で/api/products/{deleted_id}にGETリクエストを送る。</t>
-  </si>
-  <si>
-    <t>ST-P-009</t>
-  </si>
-  <si>
-    <t>商品詳細モーダルの情報が見やすく、操作しやすいか</t>
-  </si>
-  <si>
-    <t>1. 商品詳細モーダルを目視で確認する。
-2. 数量入力欄やボタンを操作してみる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 商品情報（画像、名前、価格、説明、在庫数）が分かりやすく配置されていること。
-2. 数量入力欄が操作可能で、初期値が1であること。
-3. 「カートに入れる」ボタンがクリック可能であること。</t>
-  </si>
-  <si>
-    <t>2. カート機能</t>
-  </si>
-  <si>
-    <t>ST-C-001</t>
-  </si>
-  <si>
-    <t>カート追加</t>
-  </si>
-  <si>
-    <t>商品詳細から商品をカートに追加できるか (1個)</t>
-  </si>
-  <si>
-    <t>1. 数量が「1」であることを確認する。
-2. 「カートに入れる」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 「商品をカートに追加しました」アラートが表示されること。
-2. モーダルが閉じること。
-3. 画面右上のカートアイコンのバッジ (cart-count) の数字が「1」になること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-002</t>
-  </si>
-  <si>
-    <t>商品詳細から商品をカートに追加できるか (複数個)</t>
-  </si>
-  <si>
-    <t>1. 数量入力欄に「2」を入力する。
-2. 「カートに入れる」ボタンをクリックする。</t>
-  </si>
-  <si>
-    <t>1. 「商品をカートに追加しました」アラートが表示されること。
-2. モーダルが閉じること。
-3. カートアイコンのバッジの数字が (前の状態 + 2) になること。</t>
-  </si>
-  <si>
-    <t>ST-C-003</t>
-  </si>
-  <si>
-    <t>同じ商品を複数回カートに追加した場合、数量が加算されるか</t>
-  </si>
-  <si>
-    <t>1. 「商品をカートに追加しました」アラートが表示されること。
-2. モーダルが閉じること。
-3. カートアイコンのバッジの数字が「3」 (1+2) になること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在庫数を超える数量をカートに追加しようとした場合 </t>
-  </si>
-  <si>
-    <t>1. 数量入力欄に「21」を入力しようとする。</t>
-  </si>
-  <si>
-    <t>1. 20以上の数字に変更できない。</t>
-  </si>
-  <si>
-    <t>ST-C-005</t>
-  </si>
-  <si>
-    <t>カート表示</t>
-  </si>
-  <si>
-    <t>カートアイコンクリックでカートモーダルが表示され、内容が正しいか (商品1種)</t>
-  </si>
-  <si>
-    <t>1. 画面右上のカートアイコンをクリックする。</t>
-  </si>
-  <si>
-    <t>ST-C-006</t>
-  </si>
-  <si>
-    <t>カートモーダルに複数種類の商品が正しく表示されるか（商品複数種）</t>
-  </si>
-  <si>
-    <t>1. カートアイコンをクリックする。</t>
-  </si>
-  <si>
-    <t>ST-C-007</t>
-  </si>
-  <si>
-    <t>カートが空の状態でカートモーダルを表示した場合</t>
-  </si>
-  <si>
-    <t>カートが空 (バッジ=0)</t>
-  </si>
-  <si>
-    <t>1. カートモーダルが表示されること。
-2. モーダル内に「カートは空です」というメッセージが表示されること。
-3. 合計金額が「0」または表示されないこと。
-4. 「注文手続きへ」ボタンが無効 (disabled) であること。</t>
-  </si>
-  <si>
-    <t>ST-C-008</t>
-  </si>
-  <si>
-    <t>カート数量変更</t>
-  </si>
-  <si>
-    <t>カートモーダルで商品の数量を変更できるか (増加)</t>
-  </si>
-  <si>
-    <t>ST-C-009</t>
-  </si>
-  <si>
-    <t>カートモーダルで商品の数量を変更できるか (減少)</t>
-  </si>
-  <si>
-    <t>ST-C-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カートモーダルで数量を在庫以上に変更しようとした場合 </t>
-  </si>
-  <si>
-    <t>1. 「注文を確定する」のボタンを押すと、「注文の確定に失敗しました」というエラーメッセージが表示される。</t>
-  </si>
-  <si>
-    <t>ST-C-011</t>
-  </si>
-  <si>
-    <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
-  </si>
-  <si>
-    <t>1. 「1」以下の数字に変更できない。</t>
-  </si>
-  <si>
-    <t>ST-C-012</t>
-  </si>
-  <si>
-    <t>カート商品削除</t>
-  </si>
-  <si>
-    <t>カートモーダルから商品を削除できるか</t>
-  </si>
-  <si>
-    <t>ST-C-013</t>
-  </si>
-  <si>
-    <t>カート内の最後の商品を削除した場合</t>
-  </si>
-  <si>
-    <t>ST-C-014</t>
-  </si>
-  <si>
-    <t>カート内の商品をクリアする</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示する。
-2. 「カートをクリア」ボタンを押す。</t>
-  </si>
-  <si>
-    <t>1.「カートをすべて削除しますか？」と表示されること。
-2.上記に「ok」と押すと、「カートをクリアしました」というレスポンスが表示されること。
-3.上記に「ok」と押すと、「カートは空です」メッセージが表示されること。
-4.「注文手続きへ」ボタンが無効になること。</t>
-  </si>
-  <si>
-    <t>ST-C-015</t>
-  </si>
-  <si>
-    <t>カートモーダルの表示内容や操作性が分かりやすいか</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示し、全体的なレイアウト、各項目の表示、ボタンの配置などを確認する。</t>
-  </si>
-  <si>
-    <t>1. 商品情報（名前、単価、数量、小計）が表形式で分かりやすく表示されていること。
-2. 数量変更の入力欄や削除ボタンが操作しやすい位置にあること。
-3. 合計金額が明確に表示されていること。
-4. 「カートをクリア」「買い物を続ける」「注文手続きへ」ボタンの意味が分かりやすいこと。</t>
-  </si>
-  <si>
-    <t>ST-C-016</t>
-  </si>
-  <si>
-    <t>カート機能</t>
-  </si>
-  <si>
-    <t>セキュリティ</t>
-  </si>
-  <si>
-    <t>数量変更APIに不正なproductIdを送信した場合 (APIレベル)</t>
-  </si>
-  <si>
-    <r>
-      <t>1. ブラウザ開発者ツール等で、存在しないproduct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> ("999") を指定して </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PUT /api/cart/update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> APIを呼び出す。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. サーバー側で無視され、カートの内容に影響がないこと。</t>
-  </si>
-  <si>
-    <t>3. 注文機能</t>
-  </si>
-  <si>
-    <t>ST-O-001</t>
-  </si>
-  <si>
-    <t>注文手続き開始</t>
-  </si>
-  <si>
-    <t>カートモーダルから注文手続きへ進めるか</t>
-  </si>
-  <si>
-    <t>「シンプルデスクオーガナイザー」x1, 「アロマディフューザー（ウッド）」x1 がカートに入っている (バッジ=2)</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示する。
-2. 「注文手続きへ」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルが閉じること。
-2. 顧客情報入力モーダル (checkoutModal) が表示されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-O-002</t>
-  </si>
-  <si>
-    <t>顧客情報入力</t>
-  </si>
-  <si>
-    <t>正常な顧客情報を入力できるか</t>
-  </si>
-  <si>
-    <t>顧客情報入力モーダルが表示されている</t>
-  </si>
-  <si>
-    <t>1. 以下の有効な情報を入力する。
-- 名前: 顧客 一郎
-- メール: ichiro@test.com
-- 住所: 東京都千代田区テスト1-1
-- 電話番号: 03-1234-5678
-2. (この時点では確定ボタンは押さない)</t>
-  </si>
-  <si>
-    <t>1. 各入力欄に情報が正しく入力されること。
-2. (バリデーションエラーが表示されていないこと)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-O-003</t>
-  </si>
-  <si>
-    <t>必須項目 (名前) 未入力で確定しようとした場合</t>
-  </si>
-  <si>
-    <t>1. 名前の入力欄を空にする。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1. 注文API (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>POST /api/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>) が送信されない、または送信されてもサーバー側バリデーション (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@NotBlank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>) により 400 Bad Request が返ること。
-2. 名前の入力欄の下に「お名前を入力してください」というエラーメッセージが表示されること (JSバリデーション or サーバーエラーの表示)。</t>
-    </r>
-  </si>
-  <si>
-    <t>ST-O-004</t>
-  </si>
-  <si>
-    <t>必須項目 (メール) 未入力で確定しようとした場合</t>
-  </si>
-  <si>
-    <t>1. メールアドレスの入力欄を空にする。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
-2. メールアドレス入力欄の下に「有効なメールアドレスを入力してください」というエラーメッセージが表示されること。</t>
-  </si>
-  <si>
-    <t>ST-O-005</t>
-  </si>
-  <si>
-    <t>不正な形式のメールアドレスで確定しようとした場合</t>
-  </si>
-  <si>
-    <t>1. メールアドレス入力欄に「invalid-email」と入力する。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1. 注文APIが送信されない、または 400 Bad Request が返ること (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t> バリデーション)。
-2. メールアドレス入力欄の下に「有効なメールアドレスを入力してください」というエラーメッセージが表示されること。</t>
-    </r>
-  </si>
-  <si>
-    <t>ST-O-006</t>
-  </si>
-  <si>
-    <t>必須項目 (住所) 未入力で確定しようとした場合</t>
-  </si>
-  <si>
-    <t>1. 住所の入力欄を空にする。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
-2. 住所入力欄の下に「住所を入力してください」というエラーメッセージが表示されること。</t>
-  </si>
-  <si>
-    <t>ST-O-007</t>
-  </si>
-  <si>
-    <t>必須項目 (電話番号) 未入力で確定しようとした場合</t>
-  </si>
-  <si>
-    <t>1. 電話番号の入力欄を空にする。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 注文APIが送信されない、または 400 Bad Request が返ること。
-2. 電話番号入力欄の下に「電話番号を入力してください」というエラーメッセージが表示されること。</t>
-  </si>
-  <si>
-    <t>ST-O-008</t>
-  </si>
-  <si>
-    <t>注文確定</t>
-  </si>
-  <si>
-    <t>有効な顧客情報で注文が正常に完了するか</t>
-  </si>
-  <si>
-    <t>1. 「注文を確定する」ボタンをクリックする。</t>
-  </si>
-  <si>
-    <t>ST-O-009</t>
-  </si>
-  <si>
-    <t>在庫が不足している商品を注文しようとした場合</t>
-  </si>
-  <si>
-    <t>1. ST-O-001, ST-O-002 の手順を行う。
-2. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 注文API (POST /api/orders) 呼び出しでサーバー側エラー (例: 500 Internal Server Error または適切なエラーコード) が発生すること (OrderService の在庫チェックによる例外)。
-2. 画面上にエラーメッセージが表示されること (現在のmain.jsでは汎用的なエラー表示)。
-3. DBのordersやproductsテーブルに変化がないこと (トランザクションがロールバックされる)。
-4. カートの中身やバッジは変化しないこと。</t>
-  </si>
-  <si>
-    <t>ST-O-010</t>
-  </si>
-  <si>
-    <t>注文処理中に予期せぬサーバーエラーが発生した場合 (擬似的に発生)</t>
-  </si>
-  <si>
-    <t>ST-O-001 の後、ST-O-002 の状態。</t>
-  </si>
-  <si>
-    <t>1. サーバーエラー (500 Internal Server Error) が返ること。
-2. 画面上にエラーメッセージが表示されること。
-3. DBのordersやproductsテーブルに変化がないこと (ロールバック)。
-4. カートの中身やバッジは変化しないこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-O-011</t>
-  </si>
-  <si>
-    <t>カートが空の状態で注文APIを直接呼び出した場合 (APIレベル)</t>
-  </si>
-  <si>
-    <t>カートが空</t>
-  </si>
-  <si>
-    <r>
-      <t>1. ブラウザ開発ツール等で、カートが空の状態で </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>POST /api/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> に有効な顧客情報を含むリクエストを送信する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. サーバー側 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) でカートが空であることが検知され、400 Bad Request が返ること。</t>
-    </r>
-  </si>
-  <si>
-    <t>ST-O-012</t>
-  </si>
-  <si>
-    <t>顧客情報入力フォームの各項目が分かりやすいか</t>
-  </si>
-  <si>
-    <t>1. フォームのラベル、プレースホルダー、必須マーク等を目視で確認する。</t>
-  </si>
-  <si>
-    <t>1. 各入力欄のラベル（「お名前」「メールアドレス」等）が内容と一致していること。
-2. 必須項目が視覚的にわかるようになっていること（例: required属性）。
-3. バリデーションエラー時のメッセージが具体的で分かりやすいこと。</t>
-  </si>
-  <si>
-    <t>ST-O-013</t>
-  </si>
-  <si>
-    <t>注文完了</t>
-  </si>
-  <si>
-    <t>注文完了モーダルの表示内容が適切か</t>
-  </si>
-  <si>
-    <t>注文が正常に完了した後</t>
-  </si>
-  <si>
-    <t>1. 注文完了モーダルに表示されるメッセージ、注文番号等を確認する。</t>
-  </si>
-  <si>
-    <t>1. 注文が成功したことが明確に伝わるメッセージであること。
-2. 注文番号が確認できること。
-3.メールの送信が行われたことがわかること。
-4. 次のアクション（例: トップに戻る）を促すボタンが適切に配置されていること。</t>
-  </si>
-  <si>
-    <t>4. 管理者機能</t>
-  </si>
-  <si>
-    <t>ST-A-001</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. 2. AdminProductList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> にアクセスする。</t>
-    </r>
-  </si>
-  <si>
     <t>ST-A-002</t>
-  </si>
-  <si>
-    <t>1. 2. AdminProductList.html の商品一覧画面を目視で確認する。</t>
   </si>
   <si>
     <t>ST-A-003</t>
@@ -1426,9 +1359,6 @@
     <t>一度注文を完了した後、続けて別の注文ができるか</t>
   </si>
   <si>
-    <t>ST-SC-001 完了後</t>
-  </si>
-  <si>
     <t>1. ST-SC-001 の注文が完了し、カートが空になっていることを確認。
 2. 再度 products.html から「アロマディフューザー（ウッド）」を1個カートに追加。
 3. カートモーダルから注文手続きに進み、別の顧客情報（または同じ情報）を入力して注文を確定する。</t>
@@ -1449,17 +1379,6 @@
     <t>検索機能を利用して注文ができるか</t>
   </si>
   <si>
-    <t>1. products.html を表示。
-2. 検索機能にて、「収納」と入力する。
-3. 検索結果から、「シンプルデスクオーガナイザー」の詳細を表示し、数量2でカートに追加。
-4. 検索機能にて、「ディフューザー」と入力する。
-5. 「アロマディフューザー（ウッド）」の詳細を表示し、数量1でカートに追加。
-6. カートモーダルを表示し、内容（「シンプルデスクオーガナイザー」 x2, 「アロマディフューザー（ウッド）」 x1, 合計11,200円）を確認。
-7. 「注文手続きへ」をクリック。
-8. 有効な顧客情報を入力。
-9. 「注文を確定する」をクリック。</t>
-  </si>
-  <si>
     <t>1. 検索機能にて、「収納」の検索結果が表示されること。（商品説明での検索）
 2. 検索機能にて、「ディフューザー」の検索結果が表示されること。（商品名での検索）
 3. 検索後、商品詳細画面を表示し、カートに追加できること。</t>
@@ -1491,16 +1410,6 @@
     <t>管理者が商品を更新し、ユーザーがその商品をカートに入れ、注文を完了するまでの一連の流れが正常に行えるか</t>
   </si>
   <si>
-    <t>1. 「2. AdminProductList.html」を表示。
-2. 「シンプルデスクオーガナイザー」を表示し、価格を5,000に、在庫数を50に変更する。
-3. 「products.html」 を表示。
-4. 「シンプルデスクオーガナイザー」を数量1でカートに追加。
-5. カートモーダルを表示し、内容（「シンプルデスクオーガナイザー」 x1, 合計5,000円）を確認。
-6. 「注文手続きへ」をクリック。
-7. 有効な顧客情報を入力。
-8. 「注文を確定する」をクリック。</t>
-  </si>
-  <si>
     <t>1. 商品情報が正しく更新されていること。
 2. ユーザー側の表示に反映されていること。
 3. 更新後の情報で注文が完了すること。</t>
@@ -1515,14 +1424,6 @@
     <t>管理者が商品を削除した際、ユーザー側でその商品が非表示にされているか</t>
   </si>
   <si>
-    <t>1. 「2. AdminProductList.html」を表示。
-2. 「シンプルデスクオーガナイザー」を削除する。
-3. 「products.html」を表示。
-4. 「シンプルデスクオーガナイザー」が一覧に表示されていないことを確認。
-5. 「products/1」に直接アクセスしてエラー画面を確認。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 削除した商品が商品一覧から除外されていること。
 2. 商品詳細ページへの直接アクセスができないこと</t>
   </si>
@@ -1537,11 +1438,6 @@
   </si>
   <si>
     <t>ユーザーが「シンプルデスクオーガナイザー」を数量2でカートに追加済み</t>
-  </si>
-  <si>
-    <t>1. 管理者が「2. AdminProductList.html」で「シンプルデスクオーガナイザー」の在庫を1に更新し保存。
-2. ユーザーがカートモーダルを開き、注文手続きへ進む。
-3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
   </si>
   <si>
     <t>1. 注文が拒否されること。
@@ -1559,11 +1455,6 @@
   </si>
   <si>
     <t>ユーザーが「シンプルデスクオーガナイザー」を数量1でカートに追加済み</t>
-  </si>
-  <si>
-    <t>1. 管理者が「2. AdminProductList.html」で「シンプルデスクオーガナイザー」を削除する。
-2. ユーザーがカートモーダルを開き、注文手続きへ進む。
-3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
   </si>
   <si>
     <t>ST-SCA-006</t>
@@ -1586,24 +1477,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 管理者が「2. AdminProductList.html」で「シンプルデスクオーガナイザー」の情報を更新する（価格：5,000、在庫数：50）。
-2. ユーザーがカートモーダルを開き、注文手続きへ進む。
-3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
-    <rPh sb="51" eb="53">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>ザイコスウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1933,22 +1806,7 @@
 4. 商品情報更新のための「確定」ボタンと商品を論理削除するための「削除」ボタンが表示されていること。</t>
   </si>
   <si>
-    <t>1. 「シンプルデスクオーガナイザー」の「詳細を見る」ボタンをクリックする。
-2.入力フォームに以下の内容を入力する。
-新しい商品名:商品A
-新しい商品説明 :説明A
-新しい販売価格:1000
-新しいセール価格:900
-新しい在庫量:10
-商品の新しい画像ファイル:/imgA.pig
-3.「確定」ボタンをクリックする。</t>
-  </si>
-  <si>
     <t>1.「シンプルデスクオーガナイザー」の内容が入力通りに変更されている。</t>
-  </si>
-  <si>
-    <t>1. 「シンプルデスクオーガナイザー」の「詳細を見る」ボタンをクリックする。
-2.「削除」ボタンをクリックする。</t>
   </si>
   <si>
     <t>1.「シンプルデスクオーガナイザー」の削除フラグがtrueに変更されている。</t>
@@ -2072,20 +1930,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 「2. AdminProductList.html」を表示。
-2. 新規追加から、商品（商品A、説明A、価格：1,000、セール価格：900、在庫数：5）を登録する。
-3. 「products.html」 を表示。
-4. 「商品A」を数量1でカートに追加。
-5. カートモーダルを表示し、内容（「商品A」 x1, 合計1,000円）を確認。
-6. 「注文手続きへ」をクリック。
-7. 有効な顧客情報を入力。
-8. 「注文を確定する」をクリック。</t>
-    <rPh sb="67" eb="69">
-      <t>カカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
       <t>カイメ</t>
@@ -2108,6 +1952,10 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-P-001</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2123,7 +1971,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>index.html</t>
+      <t>products.html</t>
     </r>
     <r>
       <rPr>
@@ -2139,7 +1987,203 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ST-P-001</t>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>products.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> にアクセスする。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>products.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> の商品一覧画面を目視で確認する。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 各商品カードのレイアウトが整っており、情報（画像、名前、価格）が認識しやすいこと。
+2. ボタンの文言が「編集」であり、意味が分かりやすいこと。</t>
+  </si>
+  <si>
+    <t>「編集」ボタンから商品詳細がモーダル表示されるか</t>
+  </si>
+  <si>
+    <t>1. 「シンプルデスクオーガナイザー」の「編集」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. 「アロマディフューザー（ウッド）」の「編集」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. 「シンプルデスクオーガナイザー」の「編集」ボタンをクリックする。
+2.入力フォームに以下の内容を入力する。
+新しい商品名:商品A
+新しい商品説明 :説明A
+新しい販売価格:1000
+新しいセール価格:900
+新しい在庫量:10
+商品の新しい画像ファイル:/imgA.pig
+3.「確定」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. 「シンプルデスクオーガナイザー」の「編集」ボタンをクリックする。
+2.「削除」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1.商品一覧画面が空白のまま表示される。
+2.商品カードは表示されない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品情報（名前、単価、数量、小計）が表形式で分かりやすく表示されていること。
+2. 数量変更の入力欄や削除ボタンが操作しやすい位置にあること。
+3. 合計金額が明確に表示されていること。
+4. 「カートをクリア」「買い物を続ける」「注文手続きへ」ボタンの意味が分かりやすいこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 2.%20AdminProductList.html にアクセスする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 2.%20AdminProductList.html の商品一覧画面を目視で確認する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 2.%20AdminProductList.html にアクセスする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. products.html を表示。
+2. 検索機能にて、「収納」と入力する。
+3. 検索結果から、「シンプルデスクオーガナイザー」の詳細を表示し、数量2でカートに追加。
+4. 検索機能にて、「ディフューザー」と入力する。
+5. 「アロマディフューザー（ウッド）」の詳細を表示し、数量1でカートに追加。
+6. カートモーダルを表示し、内容（「シンプルデスクオーガナイザー」 x2, 「アロマディフューザー（ウッド）」 x1, 合計11,200円）を確認。
+7. 「注文手続きへ」をクリック。
+8. 有効な顧客情報を入力。
+9. 「注文を確定する」をクリック。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カートは空
+index.htmlにアクセスし、products.htmlへ遷移している</t>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-SC-001 完了後</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カートは空
+index.htmlにアクセスし、products.htmlへ遷移している</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「2.%20AdminProductList.html」を表示。
+2. 新規追加から、商品（商品A、説明A、価格：1,000、セール価格：900、在庫数：5）を登録する。
+3. 「products.html」 を表示。
+4. 「商品A」を数量1でカートに追加。
+5. カートモーダルを表示し、内容（「商品A」 x1, 合計1,000円）を確認。
+6. 「注文手続きへ」をクリック。
+7. 有効な顧客情報を入力。
+8. 「注文を確定する」をクリック。</t>
+    <rPh sb="69" eb="71">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「2.%20AdminProductList.html」を表示。
+2. 「シンプルデスクオーガナイザー」を表示し、価格を5,000に、在庫数を50に変更する。
+3. 「products.html」 を表示。
+4. 「シンプルデスクオーガナイザー」を数量1でカートに追加。
+5. カートモーダルを表示し、内容（「シンプルデスクオーガナイザー」 x1, 合計5,000円）を確認。
+6. 「注文手続きへ」をクリック。
+7. 有効な顧客情報を入力。
+8. 「注文を確定する」をクリック。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「2.%20AdminProductList.html」を表示。
+2. 「シンプルデスクオーガナイザー」を削除する。
+3. 「products.html」を表示。
+4. 「シンプルデスクオーガナイザー」が一覧に表示されていないことを確認。
+5. 「products/1」に直接アクセスしてエラー画面を確認。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 管理者が「2.%20AdminProductList.html」で「シンプルデスクオーガナイザー」の在庫を1に更新し保存。
+2. ユーザーがカートモーダルを開き、注文手続きへ進む。
+3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 管理者が「2.%20AdminProductList.html」で「シンプルデスクオーガナイザー」を削除する。
+2. ユーザーがカートモーダルを開き、注文手続きへ進む。
+3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 管理者が「2.%20AdminProductList.html」で「シンプルデスクオーガナイザー」の情報を更新する（価格：5,000、在庫数：50）。
+2. ユーザーがカートモーダルを開き、注文手続きへ進む。
+3. 顧客情報を入力し、「注文を確定する」をクリック。</t>
+    <rPh sb="53" eb="55">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ザイコスウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2815,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F99" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2865,7 +2909,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2880,17 +2924,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2931,15 +2975,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>17</v>
@@ -2954,19 +2998,19 @@
         <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" s="18" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>17</v>
@@ -2975,210 +3019,210 @@
         <v>18</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J24" s="36"/>
     </row>
     <row r="25" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="I25" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J25" s="36"/>
     </row>
     <row r="26" spans="1:10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="I28" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J28" s="36"/>
     </row>
@@ -3188,7 +3232,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -3216,441 +3260,441 @@
         <v>16</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J34" s="36"/>
     </row>
     <row r="35" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:10" ht="135.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10" ht="100.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J37" s="36"/>
     </row>
     <row r="38" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J38" s="36"/>
     </row>
     <row r="39" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J40" s="36"/>
     </row>
     <row r="41" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J41" s="36"/>
     </row>
     <row r="42" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J44" s="36"/>
     </row>
     <row r="45" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="169.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="G47" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="I47" s="39" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J47" s="39"/>
     </row>
@@ -3660,7 +3704,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -3688,360 +3732,360 @@
         <v>16</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J51" s="36"/>
     </row>
     <row r="52" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J52" s="36"/>
     </row>
     <row r="53" spans="1:10" ht="143.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J53" s="40"/>
     </row>
     <row r="54" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J54" s="36"/>
     </row>
     <row r="55" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J55" s="40"/>
     </row>
     <row r="56" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J56" s="36"/>
     </row>
     <row r="57" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J57" s="36"/>
     </row>
     <row r="58" spans="1:10" ht="162" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J58" s="36"/>
     </row>
     <row r="59" spans="1:10" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="G63" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="I63" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J63" s="36"/>
     </row>
@@ -4051,7 +4095,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -4079,15 +4123,15 @@
         <v>16</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>17</v>
@@ -4101,47 +4145,47 @@
       <c r="E67" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="27" t="s">
-        <v>174</v>
+      <c r="F67" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>176</v>
+        <v>391</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J68" s="41"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>17</v>
@@ -4150,399 +4194,399 @@
         <v>18</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="27" t="s">
-        <v>174</v>
+      <c r="F69" s="26" t="s">
+        <v>392</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>33</v>
+        <v>383</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F71" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="G71" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="G71" s="28" t="s">
-        <v>382</v>
-      </c>
       <c r="I71" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="26" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="I72" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" customFormat="1" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" customFormat="1" ht="101.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="26" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="162" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="26" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="26" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J81" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:10" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="26" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="26" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J83" s="41"/>
     </row>
@@ -4556,7 +4600,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
@@ -4584,198 +4628,198 @@
         <v>16</v>
       </c>
       <c r="I86" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="G87" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="I87" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E88" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F88" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="I88" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>235</v>
-      </c>
       <c r="G89" s="17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J89" s="37"/>
     </row>
     <row r="90" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="I90" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" ht="248.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J93" s="37"/>
     </row>
@@ -4785,7 +4829,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="38"/>
@@ -4813,176 +4857,176 @@
         <v>16</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J97" s="37"/>
     </row>
     <row r="98" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J98" s="37"/>
     </row>
     <row r="99" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J99" s="37"/>
     </row>
     <row r="100" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J100" s="37"/>
     </row>
     <row r="101" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>288</v>
+        <v>402</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="J102" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -4991,7 +5035,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="I104" s="38"/>
       <c r="J104" s="38"/>
@@ -5019,252 +5063,252 @@
         <v>16</v>
       </c>
       <c r="I105" s="35" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I106" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J108" s="37"/>
     </row>
     <row r="109" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J109" s="37"/>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F110" s="17" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J110" s="37"/>
     </row>
     <row r="111" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J111" s="37"/>
     </row>
     <row r="112" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I112" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="I113" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J114" s="36"/>
     </row>

--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3BCCC-FD2F-4E82-9CEF-98900B3C5C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157D157-DA85-4BA0-8F5A-CCFB16679917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -891,12 +891,6 @@
     <t>1. 注文完了モーダルに表示されるメッセージ、注文番号等を確認する。</t>
   </si>
   <si>
-    <t>1. 注文が成功したことが明確に伝わるメッセージであること。
-2. 注文番号が確認できること。
-3.メールの送信が行われたことがわかること。
-4. 次のアクション（例: トップに戻る）を促すボタンが適切に配置されていること。</t>
-  </si>
-  <si>
     <t>4. 管理者機能</t>
   </si>
   <si>
@@ -2183,6 +2177,19 @@
     </rPh>
     <rPh sb="70" eb="73">
       <t>ザイコスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 注文が成功したことが明確に伝わるメッセージであること。
+2. 注文番号が確認できること。
+3.メールの送信が行われたことがわかること。
+4. 次のアクション（例：「閉じる」）を促すボタンが適切に配置されていること。</t>
+    <rPh sb="82" eb="83">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2859,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F99" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="F59" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2909,7 +2916,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2924,17 +2931,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2975,15 +2982,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>17</v>
@@ -2998,13 +3005,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J20" s="36"/>
     </row>
@@ -3025,13 +3032,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J21" s="37"/>
     </row>
@@ -3052,13 +3059,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J22" s="36"/>
     </row>
@@ -3079,13 +3086,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J23" s="36"/>
     </row>
@@ -3106,13 +3113,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>355</v>
-      </c>
       <c r="I24" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J24" s="36"/>
     </row>
@@ -3139,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J25" s="36"/>
     </row>
@@ -3157,7 +3164,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>41</v>
@@ -3166,7 +3173,7 @@
         <v>42</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J26" s="37"/>
     </row>
@@ -3193,10 +3200,10 @@
         <v>38</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3222,7 +3229,7 @@
         <v>50</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J28" s="36"/>
     </row>
@@ -3260,10 +3267,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J31" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -3280,7 +3287,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>55</v>
@@ -3289,7 +3296,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J32" s="36"/>
     </row>
@@ -3307,7 +3314,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>59</v>
@@ -3316,7 +3323,7 @@
         <v>60</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -3334,16 +3341,16 @@
         <v>62</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J34" s="36"/>
     </row>
@@ -3361,7 +3368,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>66</v>
@@ -3370,7 +3377,7 @@
         <v>67</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J35" s="36"/>
     </row>
@@ -3388,16 +3395,16 @@
         <v>70</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J36" s="36"/>
     </row>
@@ -3415,16 +3422,16 @@
         <v>73</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J37" s="36"/>
     </row>
@@ -3451,7 +3458,7 @@
         <v>78</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J38" s="36"/>
     </row>
@@ -3469,16 +3476,16 @@
         <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>339</v>
-      </c>
       <c r="I39" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J39" s="36"/>
     </row>
@@ -3496,16 +3503,16 @@
         <v>83</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>342</v>
-      </c>
       <c r="I40" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J40" s="36"/>
     </row>
@@ -3523,16 +3530,16 @@
         <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>343</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>344</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J41" s="36"/>
     </row>
@@ -3550,16 +3557,16 @@
         <v>88</v>
       </c>
       <c r="E42" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J42" s="36"/>
     </row>
@@ -3577,16 +3584,16 @@
         <v>92</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>360</v>
-      </c>
       <c r="I43" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J43" s="36"/>
     </row>
@@ -3604,16 +3611,16 @@
         <v>94</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>363</v>
-      </c>
       <c r="I44" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J44" s="36"/>
     </row>
@@ -3631,7 +3638,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>97</v>
@@ -3640,7 +3647,7 @@
         <v>98</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J45" s="37"/>
     </row>
@@ -3658,16 +3665,16 @@
         <v>100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J46" s="36"/>
     </row>
@@ -3685,7 +3692,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>106</v>
@@ -3694,7 +3701,7 @@
         <v>107</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J47" s="39"/>
     </row>
@@ -3732,10 +3739,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3761,7 +3768,7 @@
         <v>114</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J51" s="36"/>
     </row>
@@ -3788,7 +3795,7 @@
         <v>120</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J52" s="36"/>
     </row>
@@ -3815,7 +3822,7 @@
         <v>124</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J53" s="40"/>
     </row>
@@ -3842,7 +3849,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J54" s="36"/>
     </row>
@@ -3869,7 +3876,7 @@
         <v>132</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J55" s="40"/>
     </row>
@@ -3896,7 +3903,7 @@
         <v>136</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J56" s="36"/>
     </row>
@@ -3923,7 +3930,7 @@
         <v>140</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J57" s="36"/>
     </row>
@@ -3941,16 +3948,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J58" s="36"/>
     </row>
@@ -3968,7 +3975,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>147</v>
@@ -3977,7 +3984,7 @@
         <v>148</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J59" s="36"/>
     </row>
@@ -3998,13 +4005,13 @@
         <v>151</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>152</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J60" s="36"/>
     </row>
@@ -4031,7 +4038,7 @@
         <v>157</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J61" s="36"/>
     </row>
@@ -4058,7 +4065,7 @@
         <v>161</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J62" s="36"/>
     </row>
@@ -4082,10 +4089,10 @@
         <v>166</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J63" s="36"/>
     </row>
@@ -4095,7 +4102,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
@@ -4123,15 +4130,15 @@
         <v>16</v>
       </c>
       <c r="I66" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>17</v>
@@ -4146,19 +4153,19 @@
         <v>20</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J67" s="41"/>
     </row>
     <row r="68" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>17</v>
@@ -4173,19 +4180,19 @@
         <v>20</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J68" s="41"/>
     </row>
     <row r="69" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>17</v>
@@ -4200,19 +4207,19 @@
         <v>20</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>29</v>
@@ -4221,25 +4228,25 @@
         <v>18</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>29</v>
@@ -4254,19 +4261,19 @@
         <v>31</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J71" s="41"/>
     </row>
     <row r="72" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="28" t="s">
         <v>29</v>
@@ -4281,19 +4288,19 @@
         <v>36</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G72" s="28" t="s">
         <v>38</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J72" s="41"/>
     </row>
     <row r="73" spans="1:10" customFormat="1" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>29</v>
@@ -4308,211 +4315,211 @@
         <v>31</v>
       </c>
       <c r="F73" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="I73" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J73" s="41"/>
     </row>
     <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>182</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J74" s="41"/>
     </row>
     <row r="75" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E75" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="F75" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F75" s="31" t="s">
+      <c r="G75" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="I75" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J75" s="41"/>
     </row>
     <row r="76" spans="1:10" customFormat="1" ht="101.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="26" t="s">
+      <c r="F76" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="G76" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="G76" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="I76" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D77" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="F77" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="31" t="s">
+      <c r="G77" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="28" t="s">
-        <v>198</v>
-      </c>
       <c r="I77" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J77" s="41"/>
     </row>
     <row r="78" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C78" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F78" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="G78" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J78" s="41"/>
     </row>
     <row r="79" spans="1:10" customFormat="1" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>203</v>
-      </c>
       <c r="G79" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J79" s="41"/>
     </row>
     <row r="80" spans="1:10" customFormat="1" ht="162" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="31" t="s">
         <v>204</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>205</v>
       </c>
       <c r="C80" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="31" t="s">
-        <v>207</v>
-      </c>
       <c r="F80" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="28" t="s">
         <v>18</v>
@@ -4521,54 +4528,54 @@
         <v>35</v>
       </c>
       <c r="E81" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="31" t="s">
-        <v>210</v>
-      </c>
       <c r="G81" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I81" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="J81" s="37" t="s">
         <v>375</v>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:10" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>212</v>
       </c>
       <c r="C82" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C83" s="28" t="s">
         <v>18</v>
@@ -4577,16 +4584,16 @@
         <v>35</v>
       </c>
       <c r="E83" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F83" s="29" t="s">
-        <v>216</v>
-      </c>
       <c r="G83" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J83" s="41"/>
     </row>
@@ -4600,7 +4607,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I85" s="38"/>
       <c r="J85" s="38"/>
@@ -4628,198 +4635,198 @@
         <v>16</v>
       </c>
       <c r="I86" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J86" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J86" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="E87" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F87" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G87" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="I87" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="E88" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="I88" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J88" s="36"/>
     </row>
     <row r="89" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D89" s="16" t="s">
+      <c r="E89" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="F89" s="17" t="s">
+      <c r="G89" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>231</v>
-      </c>
       <c r="I89" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J89" s="37"/>
     </row>
     <row r="90" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="E90" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="F90" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="G90" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="I90" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J90" s="36"/>
     </row>
     <row r="91" spans="1:10" ht="103.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="E91" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F91" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G91" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="I91" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J91" s="36"/>
     </row>
     <row r="92" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C92" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="E92" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="I92" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J92" s="36"/>
     </row>
     <row r="93" spans="1:10" ht="248.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="C93" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C93" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D93" s="16" t="s">
+      <c r="E93" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G93" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="I93" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J93" s="37"/>
     </row>
@@ -4829,7 +4836,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="38"/>
@@ -4857,176 +4864,176 @@
         <v>16</v>
       </c>
       <c r="I96" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J96" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J96" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="C97" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" s="16" t="s">
+      <c r="E97" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="G97" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>256</v>
-      </c>
       <c r="I97" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J97" s="37"/>
     </row>
     <row r="98" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="C98" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="16" t="s">
+      <c r="E98" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F98" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="I98" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J98" s="37"/>
     </row>
     <row r="99" spans="1:10" ht="110.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="C99" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J99" s="37"/>
     </row>
     <row r="100" spans="1:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="C100" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C100" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="16" t="s">
+      <c r="E100" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="F100" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G100" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="F100" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>269</v>
-      </c>
       <c r="I100" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J100" s="37"/>
     </row>
     <row r="101" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="C101" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="16" t="s">
+      <c r="E101" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>273</v>
-      </c>
       <c r="F101" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="C102" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="16" t="s">
+      <c r="E102" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G102" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="E102" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>277</v>
-      </c>
       <c r="I102" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J102" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5035,7 +5042,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I104" s="38"/>
       <c r="J104" s="38"/>
@@ -5063,252 +5070,252 @@
         <v>16</v>
       </c>
       <c r="I105" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="J105" s="35" t="s">
         <v>373</v>
-      </c>
-      <c r="J105" s="35" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F106" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>283</v>
-      </c>
       <c r="I106" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>284</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>285</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F108" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G108" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>291</v>
-      </c>
       <c r="I108" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J108" s="37"/>
     </row>
     <row r="109" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F109" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="G109" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="G109" s="17" t="s">
-        <v>296</v>
-      </c>
       <c r="I109" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J109" s="37"/>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D110" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="F110" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="G110" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>302</v>
-      </c>
       <c r="I110" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J110" s="37"/>
     </row>
     <row r="111" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>304</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="G111" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="G111" s="17" t="s">
-        <v>308</v>
-      </c>
       <c r="I111" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J111" s="37"/>
     </row>
     <row r="112" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="C112" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="E112" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="F112" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="G112" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="I112" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F113" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G113" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="I113" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G114" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="I114" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J114" s="36"/>
     </row>

--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157D157-DA85-4BA0-8F5A-CCFB16679917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48196A-FB6C-4DC1-ADAB-744D09C35AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="402">
   <si>
     <t>Raffine Home 総合テスト仕様書</t>
   </si>
@@ -1471,22 +1471,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 変更後の商品情報で注文が確定すること。</t>
-    <rPh sb="3" eb="6">
-      <t>ヘンコウゴ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2866,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F59" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="D93" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2916,7 +2900,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2931,17 +2915,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2982,15 +2966,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>17</v>
@@ -3005,13 +2989,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J20" s="36"/>
     </row>
@@ -3032,13 +3016,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J21" s="37"/>
     </row>
@@ -3059,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J22" s="36"/>
     </row>
@@ -3086,13 +3070,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J23" s="36"/>
     </row>
@@ -3113,13 +3097,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="I24" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J24" s="36"/>
     </row>
@@ -3146,7 +3130,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J25" s="36"/>
     </row>
@@ -3164,7 +3148,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>41</v>
@@ -3173,7 +3157,7 @@
         <v>42</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J26" s="37"/>
     </row>
@@ -3200,10 +3184,10 @@
         <v>38</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3229,7 +3213,7 @@
         <v>50</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J28" s="36"/>
     </row>
@@ -3267,10 +3251,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J31" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -3287,7 +3271,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>55</v>
@@ -3296,7 +3280,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J32" s="36"/>
     </row>
@@ -3314,7 +3298,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>59</v>
@@ -3323,7 +3307,7 @@
         <v>60</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -3341,16 +3325,16 @@
         <v>62</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J34" s="36"/>
     </row>
@@ -3368,7 +3352,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>66</v>
@@ -3377,7 +3361,7 @@
         <v>67</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J35" s="36"/>
     </row>
@@ -3395,16 +3379,16 @@
         <v>70</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J36" s="36"/>
     </row>
@@ -3422,16 +3406,16 @@
         <v>73</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J37" s="36"/>
     </row>
@@ -3458,7 +3442,7 @@
         <v>78</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J38" s="36"/>
     </row>
@@ -3476,16 +3460,16 @@
         <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F39" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>338</v>
-      </c>
       <c r="I39" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J39" s="36"/>
     </row>
@@ -3503,16 +3487,16 @@
         <v>83</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>341</v>
-      </c>
       <c r="I40" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J40" s="36"/>
     </row>
@@ -3530,16 +3514,16 @@
         <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J41" s="36"/>
     </row>
@@ -3557,16 +3541,16 @@
         <v>88</v>
       </c>
       <c r="E42" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J42" s="36"/>
     </row>
@@ -3584,16 +3568,16 @@
         <v>92</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>359</v>
-      </c>
       <c r="I43" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J43" s="36"/>
     </row>
@@ -3611,16 +3595,16 @@
         <v>94</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="G44" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>362</v>
-      </c>
       <c r="I44" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J44" s="36"/>
     </row>
@@ -3638,7 +3622,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>97</v>
@@ -3647,7 +3631,7 @@
         <v>98</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J45" s="37"/>
     </row>
@@ -3665,16 +3649,16 @@
         <v>100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J46" s="36"/>
     </row>
@@ -3692,7 +3676,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>106</v>
@@ -3701,7 +3685,7 @@
         <v>107</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J47" s="39"/>
     </row>
@@ -3739,10 +3723,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3768,7 +3752,7 @@
         <v>114</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J51" s="36"/>
     </row>
@@ -3795,7 +3779,7 @@
         <v>120</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J52" s="36"/>
     </row>
@@ -3822,7 +3806,7 @@
         <v>124</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J53" s="40"/>
     </row>
@@ -3849,7 +3833,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J54" s="36"/>
     </row>
@@ -3876,7 +3860,7 @@
         <v>132</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J55" s="40"/>
     </row>
@@ -3903,7 +3887,7 @@
         <v>136</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J56" s="36"/>
     </row>
@@ -3930,7 +3914,7 @@
         <v>140</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J57" s="36"/>
     </row>
@@ -3948,16 +3932,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J58" s="36"/>
     </row>
@@ -3975,7 +3959,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>147</v>
@@ -3984,7 +3968,7 @@
         <v>148</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J59" s="36"/>
     </row>
@@ -4005,13 +3989,13 @@
         <v>151</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>152</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J60" s="36"/>
     </row>
@@ -4038,7 +4022,7 @@
         <v>157</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J61" s="36"/>
     </row>
@@ -4065,7 +4049,7 @@
         <v>161</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J62" s="36"/>
     </row>
@@ -4089,10 +4073,10 @@
         <v>166</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J63" s="36"/>
     </row>
@@ -4130,10 +4114,10 @@
         <v>16</v>
       </c>
       <c r="I66" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -4153,13 +4137,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J67" s="41"/>
     </row>
@@ -4180,13 +4164,13 @@
         <v>20</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J68" s="41"/>
     </row>
@@ -4207,13 +4191,13 @@
         <v>20</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J69" s="41"/>
     </row>
@@ -4228,19 +4212,19 @@
         <v>18</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J70" s="41"/>
     </row>
@@ -4261,13 +4245,13 @@
         <v>31</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J71" s="41"/>
     </row>
@@ -4294,7 +4278,7 @@
         <v>38</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J72" s="41"/>
     </row>
@@ -4321,7 +4305,7 @@
         <v>179</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J73" s="41"/>
     </row>
@@ -4348,7 +4332,7 @@
         <v>183</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J74" s="41"/>
     </row>
@@ -4375,7 +4359,7 @@
         <v>188</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J75" s="41"/>
     </row>
@@ -4402,7 +4386,7 @@
         <v>193</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J76" s="41"/>
     </row>
@@ -4429,7 +4413,7 @@
         <v>197</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J77" s="41"/>
     </row>
@@ -4456,7 +4440,7 @@
         <v>197</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J78" s="41"/>
     </row>
@@ -4483,7 +4467,7 @@
         <v>197</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J79" s="41"/>
     </row>
@@ -4504,13 +4488,13 @@
         <v>206</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J80" s="42"/>
     </row>
@@ -4537,10 +4521,10 @@
         <v>172</v>
       </c>
       <c r="I81" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J81" s="37" t="s">
         <v>374</v>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:10" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -4560,13 +4544,13 @@
         <v>206</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J82" s="42"/>
     </row>
@@ -4593,7 +4577,7 @@
         <v>172</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J83" s="41"/>
     </row>
@@ -4635,10 +4619,10 @@
         <v>16</v>
       </c>
       <c r="I86" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J86" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J86" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4655,7 +4639,7 @@
         <v>220</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>222</v>
@@ -4664,13 +4648,13 @@
         <v>223</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>224</v>
@@ -4679,10 +4663,10 @@
         <v>219</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>225</v>
@@ -4691,7 +4675,7 @@
         <v>226</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J88" s="36"/>
     </row>
@@ -4709,7 +4693,7 @@
         <v>228</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>229</v>
@@ -4718,7 +4702,7 @@
         <v>230</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J89" s="37"/>
     </row>
@@ -4745,7 +4729,7 @@
         <v>236</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J90" s="36"/>
     </row>
@@ -4763,7 +4747,7 @@
         <v>239</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>240</v>
@@ -4772,7 +4756,7 @@
         <v>241</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J91" s="36"/>
     </row>
@@ -4790,7 +4774,7 @@
         <v>244</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>245</v>
@@ -4799,7 +4783,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J92" s="36"/>
     </row>
@@ -4817,16 +4801,16 @@
         <v>249</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>250</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J93" s="37"/>
     </row>
@@ -4864,10 +4848,10 @@
         <v>16</v>
       </c>
       <c r="I96" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J96" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J96" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4887,13 +4871,13 @@
         <v>221</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>255</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J97" s="37"/>
     </row>
@@ -4914,13 +4898,13 @@
         <v>221</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>259</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J98" s="37"/>
     </row>
@@ -4941,13 +4925,13 @@
         <v>36</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>263</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J99" s="37"/>
     </row>
@@ -4968,13 +4952,13 @@
         <v>267</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>268</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J100" s="37"/>
     </row>
@@ -4995,16 +4979,16 @@
         <v>272</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>268</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5024,16 +5008,16 @@
         <v>272</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J102" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5042,7 +5026,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I104" s="38"/>
       <c r="J104" s="38"/>
@@ -5070,252 +5054,252 @@
         <v>16</v>
       </c>
       <c r="I105" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="J105" s="35" t="s">
         <v>372</v>
-      </c>
-      <c r="J105" s="35" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F106" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G106" s="10" t="s">
-        <v>282</v>
-      </c>
       <c r="I106" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J106" s="36"/>
     </row>
     <row r="107" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J107" s="44"/>
     </row>
     <row r="108" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F108" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G108" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>290</v>
-      </c>
       <c r="I108" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J108" s="37"/>
     </row>
     <row r="109" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>292</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F109" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="G109" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="G109" s="17" t="s">
-        <v>295</v>
-      </c>
       <c r="I109" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J109" s="37"/>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D110" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="F110" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="G110" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>301</v>
-      </c>
       <c r="I110" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J110" s="37"/>
     </row>
     <row r="111" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B111" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="F111" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="G111" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="G111" s="17" t="s">
-        <v>307</v>
-      </c>
       <c r="I111" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J111" s="37"/>
     </row>
     <row r="112" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="C112" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="E112" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="F112" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G112" s="10" t="s">
-        <v>314</v>
-      </c>
       <c r="I112" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="C113" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F113" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G113" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G113" s="10" t="s">
-        <v>319</v>
-      </c>
       <c r="I113" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G114" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G114" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="I114" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J114" s="36"/>
     </row>

--- a/総合テスト/総合テスト仕様書_teamF.xlsx
+++ b/総合テスト/総合テスト仕様書_teamF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E48196A-FB6C-4DC1-ADAB-744D09C35AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786705C5-D271-4935-884D-82A81A12E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -1515,10 +1515,6 @@
     <t>バリデーションエラーやサーバーエラー発生時のメッセージがユーザーにとって分かりやすいか</t>
   </si>
   <si>
-    <t>1. ST-O-003〜ST-O-007 (入力エラー) や ST-O-009 (在庫不足エラー) 、ST-A-013（商品編集エラー）を意図的に発生させる。
-2. 画面に表示されるエラーメッセージを確認する。</t>
-  </si>
-  <si>
     <t>1. エラーの原因や対処法が分かるような、具体的で丁寧なメッセージが表示されること。（例：「お名前は必須です」）
 2. 技術的なエラーコードやスタックトレースが直接ユーザー画面に表示されないこと (GlobalExceptionHandlerでハンドリング)。</t>
   </si>
@@ -1543,12 +1539,6 @@
   </si>
   <si>
     <t>入力フォーム全般</t>
-  </si>
-  <si>
-    <t>顧客情報、商品名などの入力欄にスクリプトを埋め込もうとした場合の挙動 (簡易XSS確認)</t>
-  </si>
-  <si>
-    <t>顧客情報入力モーダル、プロダクトモーダル</t>
   </si>
   <si>
     <t>1. 入力欄に &lt;script&gt;alert('XSS')&lt;/script&gt; と入力する。
@@ -2175,6 +2165,19 @@
     <rPh sb="85" eb="86">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ST-O-003〜ST-O-007 (入力エラー) や ST-O-009 (在庫不足エラー) を意図的に発生させる。
+2. 画面に表示されるエラーメッセージを確認する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客情報入力モーダル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顧客情報の入力欄にスクリプトを埋め込もうとした場合の挙動 (簡易XSS確認)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2850,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D93" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2900,7 +2903,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2915,17 +2918,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2966,15 +2969,15 @@
         <v>16</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>17</v>
@@ -2989,13 +2992,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J20" s="36"/>
     </row>
@@ -3016,13 +3019,13 @@
         <v>23</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J21" s="37"/>
     </row>
@@ -3043,13 +3046,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J22" s="36"/>
     </row>
@@ -3070,13 +3073,13 @@
         <v>31</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J23" s="36"/>
     </row>
@@ -3097,13 +3100,13 @@
         <v>31</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J24" s="36"/>
     </row>
@@ -3130,7 +3133,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J25" s="36"/>
     </row>
@@ -3148,7 +3151,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>41</v>
@@ -3157,7 +3160,7 @@
         <v>42</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J26" s="37"/>
     </row>
@@ -3184,10 +3187,10 @@
         <v>38</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3213,7 +3216,7 @@
         <v>50</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J28" s="36"/>
     </row>
@@ -3251,10 +3254,10 @@
         <v>16</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -3271,7 +3274,7 @@
         <v>54</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>55</v>
@@ -3280,7 +3283,7 @@
         <v>56</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J32" s="36"/>
     </row>
@@ -3298,7 +3301,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>59</v>
@@ -3307,7 +3310,7 @@
         <v>60</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J33" s="36"/>
     </row>
@@ -3325,16 +3328,16 @@
         <v>62</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>63</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J34" s="36"/>
     </row>
@@ -3352,7 +3355,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>66</v>
@@ -3361,7 +3364,7 @@
         <v>67</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J35" s="36"/>
     </row>
@@ -3379,16 +3382,16 @@
         <v>70</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J36" s="36"/>
     </row>
@@ -3406,16 +3409,16 @@
         <v>73</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J37" s="36"/>
     </row>
@@ -3442,7 +3445,7 @@
         <v>78</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J38" s="36"/>
     </row>
@@ -3460,16 +3463,16 @@
         <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J39" s="36"/>
     </row>
@@ -3487,16 +3490,16 @@
         <v>83</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J40" s="36"/>
     </row>
@@ -3514,16 +3517,16 @@
         <v>85</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J41" s="36"/>
     </row>
@@ -3541,16 +3544,16 @@
         <v>88</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>89</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J42" s="36"/>
     </row>
@@ -3568,16 +3571,16 @@
         <v>92</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J43" s="36"/>
     </row>
@@ -3595,16 +3598,16 @@
         <v>94</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I44" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J44" s="36"/>
     </row>
@@ -3622,7 +3625,7 @@
         <v>96</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>97</v>
@@ -3631,7 +3634,7 @@
         <v>98</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J45" s="37"/>
     </row>
@@ -3649,16 +3652,16 @@
         <v>100</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>101</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I46" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J46" s="36"/>
     </row>
@@ -3676,7 +3679,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>106</v>
@@ -3685,7 +3688,7 @@
         <v>107</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J47" s="39"/>
     </row>
@@ -3723,10 +3726,10 @@
         <v>16</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3752,7 +3755,7 @@
         <v>114</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J51" s="36"/>
     </row>
@@ -3779,7 +3782,7 @@
         <v>120</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J52" s="36"/>
     </row>
@@ -3806,7 +3809,7 @@
         <v>124</v>
       </c>
       <c r="I53" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J53" s="40"/>
     </row>
@@ -3833,7 +3836,7 @@
         <v>128</v>
       </c>
       <c r="I54" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J54" s="36"/>
     </row>
@@ -3860,7 +3863,7 @@
         <v>132</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J55" s="40"/>
     </row>
@@ -3887,7 +3890,7 @@
         <v>136</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J56" s="36"/>
     </row>
@@ -3914,7 +3917,7 @@
         <v>140</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J57" s="36"/>
     </row>
@@ -3932,16 +3935,16 @@
         <v>143</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J58" s="36"/>
     </row>
@@ -3959,7 +3962,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>147</v>
@@ -3968,7 +3971,7 @@
         <v>148</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J59" s="36"/>
     </row>
@@ -3989,13 +3992,13 @@
         <v>151</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>152</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J60" s="36"/>
     </row>
@@ -4022,7 +4025,7 @@
         <v>157</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J61" s="36"/>
     </row>
@@ -4049,7 +4052,7 @@
         <v>161</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J62" s="36"/>
     </row>
@@ -4073,10 +4076,10 @@
         <v>166</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J63" s="36"/>
     </row>
@@ -4114,10 +4117,10 @@
         <v>16</v>
       </c>
       <c r="I66" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J66" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -4137,13 +4140,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J67" s="41"/>
     </row>
@@ -4164,13 +4167,13 @@
         <v>20</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J68" s="41"/>
     </row>
@@ -4191,13 +4194,13 @@
         <v>20</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J69" s="41"/>
     </row>
@@ -4212,19 +4215,19 @@
         <v>18</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E70" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I70" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J70" s="41"/>
     </row>
@@ -4245,13 +4248,13 @@
         <v>31</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I71" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J71" s="41"/>
     </row>
@@ -4278,7 +4281,7 @@
         <v>38</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J72" s="41"/>
     </row>
@@ -4305,7 +4308,7 @@
         <v>179</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J73" s="41"/>
     </row>
@@ -4332,7 +4335,7 @@
         <v>183</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J74" s="41"/>
     </row>
@@ -4359,7 +4362,7 @@
         <v>188</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J75" s="41"/>
     </row>
@@ -4386,7 +4389,7 @@
         <v>193</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J76" s="41"/>
     </row>
@@ -4413,7 +4416,7 @@
         <v>197</v>
       </c>
       <c r="I77" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J77" s="41"/>
     </row>
@@ -4440,7 +4443,7 @@
         <v>197</v>
       </c>
       <c r="I78" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J78" s="41"/>
     </row>
@@ -4467,7 +4470,7 @@
         <v>197</v>
       </c>
       <c r="I79" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J79" s="41"/>
     </row>
@@ -4488,13 +4491,13 @@
         <v>206</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J80" s="42"/>
     </row>
@@ -4521,10 +4524,10 @@
         <v>172</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J81" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:10" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -4544,13 +4547,13 @@
         <v>206</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J82" s="42"/>
     </row>
@@ -4577,7 +4580,7 @@
         <v>172</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J83" s="41"/>
     </row>
@@ -4619,10 +4622,10 @@
         <v>16</v>
       </c>
       <c r="I86" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J86" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="165.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4639,7 +4642,7 @@
         <v>220</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>222</v>
@@ -4648,13 +4651,13 @@
         <v>223</v>
       </c>
       <c r="I87" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J87" s="36"/>
     </row>
     <row r="88" spans="1:10" ht="162.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>224</v>
@@ -4663,10 +4666,10 @@
         <v>219</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>225</v>
@@ -4675,7 +4678,7 @@
         <v>226</v>
       </c>
       <c r="I88" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J88" s="36"/>
     </row>
@@ -4693,7 +4696,7 @@
         <v>228</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>229</v>
@@ -4702,7 +4705,7 @@
         <v>230</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J89" s="37"/>
     </row>
@@ -4729,7 +4732,7 @@
         <v>236</v>
       </c>
       <c r="I90" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J90" s="36"/>
     </row>
@@ -4747,7 +4750,7 @@
         <v>239</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>240</v>
@@ -4756,7 +4759,7 @@
         <v>241</v>
       </c>
       <c r="I91" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J91" s="36"/>
     </row>
@@ -4774,7 +4777,7 @@
         <v>244</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>245</v>
@@ -4783,7 +4786,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J92" s="36"/>
     </row>
@@ -4801,16 +4804,16 @@
         <v>249</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G93" s="17" t="s">
         <v>250</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J93" s="37"/>
     </row>
@@ -4848,10 +4851,10 @@
         <v>16</v>
       </c>
       <c r="I96" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="180.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4871,13 +4874,13 @@
         <v>221</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G97" s="17" t="s">
         <v>255</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J97" s="37"/>
     </row>
@@ -4898,13 +4901,13 @@
         <v>221</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G98" s="17" t="s">
         <v>259</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J98" s="37"/>
     </row>
@@ -4925,13 +4928,13 @@
         <v>36</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G99" s="17" t="s">
         <v>263</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J99" s="37"/>
     </row>
@@ -4952,13 +4955,13 @@
         <v>267</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G100" s="17" t="s">
         <v>268</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J100" s="37"/>
     </row>
@@ -4979,16 +4982,16 @@
         <v>272</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G101" s="17" t="s">
         <v>268</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J101" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5008,16 +5011,16 @@
         <v>272</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G102" s="17" t="s">
         <v>268</v>
       </c>
       <c r="I102" s="37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J102" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5054,10 +5057,10 @@
         <v>16</v>
       </c>
       <c r="I105" s="35" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J105" s="35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -5083,7 +5086,7 @@
         <v>281</v>
       </c>
       <c r="I106" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J106" s="36"/>
     </row>
@@ -5110,7 +5113,7 @@
         <v>281</v>
       </c>
       <c r="I107" s="44" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J107" s="44"/>
     </row>
@@ -5131,175 +5134,175 @@
         <v>36</v>
       </c>
       <c r="F108" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G108" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G108" s="17" t="s">
-        <v>289</v>
-      </c>
       <c r="I108" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J108" s="37"/>
     </row>
     <row r="109" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F109" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="G109" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="G109" s="17" t="s">
-        <v>294</v>
-      </c>
       <c r="I109" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J109" s="37"/>
     </row>
     <row r="110" spans="1:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D110" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G110" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E110" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="F110" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>300</v>
-      </c>
       <c r="I110" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J110" s="37"/>
     </row>
     <row r="111" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>306</v>
-      </c>
       <c r="I111" s="37" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J111" s="37"/>
     </row>
     <row r="112" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="E112" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="F112" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="G112" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>313</v>
-      </c>
       <c r="I112" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J112" s="36"/>
     </row>
     <row r="113" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I113" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J113" s="36"/>
     </row>
     <row r="114" spans="1:10" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J114" s="36"/>
     </row>
